--- a/qwen_agent/agents/resource/faq.xlsx
+++ b/qwen_agent/agents/resource/faq.xlsx
@@ -25,10 +25,10 @@
     <t>什么是QDII基金</t>
   </si>
   <si>
-    <t>可以投资境外资产的基金是什么’</t>
-  </si>
-  <si>
-    <t>‘QDII基金有什么风险</t>
+    <t>可以投资境外资产的基金是什么</t>
+  </si>
+  <si>
+    <t>QDII基金有什么风险</t>
   </si>
   <si>
     <t>QDII是什么</t>
@@ -43,19 +43,19 @@
     <t>赎回是什么意思</t>
   </si>
   <si>
-    <t>简单介绍一下赎回”</t>
-  </si>
-  <si>
-    <t>‘预约赎回是什么意思’</t>
-  </si>
-  <si>
-    <t>‘基金赎回是啥’</t>
-  </si>
-  <si>
-    <t>‘赎回的概念是什么’</t>
-  </si>
-  <si>
-    <t>’介绍一下赎回是什么意思</t>
+    <t>简单介绍一下赎回</t>
+  </si>
+  <si>
+    <t>预约赎回是什么意思</t>
+  </si>
+  <si>
+    <t>基金赎回是啥</t>
+  </si>
+  <si>
+    <t>赎回的概念是什么</t>
+  </si>
+  <si>
+    <t>介绍一下赎回是什么意思</t>
   </si>
   <si>
     <t>如何查询理财产品？</t>
@@ -64,16 +64,16 @@
     <t>怎么查询理财</t>
   </si>
   <si>
-    <t>‘理财都有什么’</t>
-  </si>
-  <si>
-    <t>‘理财都有些啥产品</t>
-  </si>
-  <si>
-    <t>‘理财产品从哪里进去’</t>
-  </si>
-  <si>
-    <t>‘理财产品列表哪里看</t>
+    <t>理财都有什么</t>
+  </si>
+  <si>
+    <t>理财都有些啥产品</t>
+  </si>
+  <si>
+    <t>理财产品从哪里进去</t>
+  </si>
+  <si>
+    <t>理财产品列表哪里看</t>
   </si>
   <si>
     <t>什么是CPI</t>
@@ -82,34 +82,34 @@
     <t>CPI是干什么的</t>
   </si>
   <si>
-    <t>‘CPI是啥</t>
-  </si>
-  <si>
-    <t>‘介绍一下CPI</t>
-  </si>
-  <si>
-    <t>CPI和PPl有什么区别’</t>
-  </si>
-  <si>
-    <t>‘CPI是啥含义</t>
+    <t>CPI是啥</t>
+  </si>
+  <si>
+    <t>介绍一下CPI</t>
+  </si>
+  <si>
+    <t>CPI和PPl有什么区别</t>
+  </si>
+  <si>
+    <t>CPI是啥含义</t>
   </si>
   <si>
     <t>什么是平仓空仓</t>
   </si>
   <si>
-    <t>平仓是啥’</t>
-  </si>
-  <si>
-    <t>‘什么是空仓</t>
-  </si>
-  <si>
-    <t>‘空仓是什么东西’</t>
-  </si>
-  <si>
-    <t>‘空仓的含义’</t>
-  </si>
-  <si>
-    <t>‘讲一讲平仓</t>
+    <t>平仓是啥</t>
+  </si>
+  <si>
+    <t>什么是空仓</t>
+  </si>
+  <si>
+    <t>空仓是什么东西</t>
+  </si>
+  <si>
+    <t>空仓的含义</t>
+  </si>
+  <si>
+    <t>讲一讲平仓</t>
   </si>
   <si>
     <t>A类和C类有什么区别</t>
@@ -118,13 +118,13 @@
     <t>A类与C类有什么区别</t>
   </si>
   <si>
-    <t>‘什么时候适合买A类</t>
+    <t>什么时候适合买A类</t>
   </si>
   <si>
     <t>什么时候适合买C类</t>
   </si>
   <si>
-    <t>‘基金A类和C类的区别</t>
+    <t>基金A类和C类的区别</t>
   </si>
   <si>
     <t>买哪个合适</t>
@@ -133,7 +133,7 @@
     <t>同一个基金的混合A和混合C买哪个</t>
   </si>
   <si>
-    <t>‘A类和C类各自的优缺点</t>
+    <t>A类和C类各自的优缺点</t>
   </si>
   <si>
     <t>货币基金有风险吗</t>
@@ -142,28 +142,28 @@
     <t>货基有没有过亏本的情况</t>
   </si>
   <si>
-    <t>‘货基的风险是不是可以忽略不计‘</t>
-  </si>
-  <si>
-    <t>‘货币基金是不是也有风险”</t>
-  </si>
-  <si>
-    <t>‘货基赔过钱吗‘</t>
-  </si>
-  <si>
-    <t>‘货币基金保本吗</t>
+    <t>货基的风险是不是可以忽略不计</t>
+  </si>
+  <si>
+    <t>货币基金是不是也有风险</t>
+  </si>
+  <si>
+    <t>货基赔过钱吗</t>
+  </si>
+  <si>
+    <t>货币基金保本吗</t>
   </si>
   <si>
     <t>地缘冲突的影响</t>
   </si>
   <si>
-    <t>俄乌战争对市场的影响”</t>
-  </si>
-  <si>
-    <t>乌克兰打仗会影响我的基金收益吗？’</t>
-  </si>
-  <si>
-    <t>‘发生战争对国内有什么影响吗</t>
+    <t>俄乌战争对市场的影响</t>
+  </si>
+  <si>
+    <t>乌克兰打仗会影响我的基金收益吗？</t>
+  </si>
+  <si>
+    <t>发生战争对国内有什么影响吗</t>
   </si>
   <si>
     <t>地缘冲突频发</t>
@@ -172,7 +172,7 @@
     <t>是否应该降低A股的配置比例</t>
   </si>
   <si>
-    <t>‘发生局部战争</t>
+    <t>发生局部战争</t>
   </si>
   <si>
     <t>可以重仓军工基金吗</t>
@@ -181,19 +181,19 @@
     <t>什么是巨额赎回</t>
   </si>
   <si>
-    <t>基金发生了巨额赎回 代表着什么’</t>
-  </si>
-  <si>
-    <t>‘多大金额就是巨额赎回啊</t>
-  </si>
-  <si>
-    <t>’着急用钱</t>
-  </si>
-  <si>
-    <t>赎回基金遇到巨额”</t>
-  </si>
-  <si>
-    <t>巨额赎回的定义是什么’</t>
+    <t>基金发生了巨额赎回 代表着什么</t>
+  </si>
+  <si>
+    <t>多大金额就是巨额赎回啊</t>
+  </si>
+  <si>
+    <t>着急用钱</t>
+  </si>
+  <si>
+    <t>赎回基金遇到巨额</t>
+  </si>
+  <si>
+    <t>巨额赎回的定义是什么</t>
   </si>
   <si>
     <t>巨额赎回怎么办</t>
@@ -202,37 +202,37 @@
     <t>如何查询理财产品的历史业绩？</t>
   </si>
   <si>
-    <t>广手机银行上理财之前的业绩怎么看’</t>
+    <t>广手机银行上理财之前的业绩怎么看</t>
   </si>
   <si>
     <t>可以查到近3年的理财历史业绩吗</t>
   </si>
   <si>
-    <t>‘怎么看理财之前的成绩怎么样</t>
-  </si>
-  <si>
-    <t>‘理财以前赚钱了吗还能看到吗</t>
-  </si>
-  <si>
-    <t>‘如何查询过去的理财业绩</t>
+    <t>怎么看理财之前的成绩怎么样</t>
+  </si>
+  <si>
+    <t>理财以前赚钱了吗还能看到吗</t>
+  </si>
+  <si>
+    <t>如何查询过去的理财业绩</t>
   </si>
   <si>
     <t>北向资金的影响</t>
   </si>
   <si>
-    <t>我们为什么那么关注北向资金’</t>
-  </si>
-  <si>
-    <t>‘北向资金为什么被称为聪明资金’</t>
-  </si>
-  <si>
-    <t>‘北向资金的流入意味着什么’</t>
-  </si>
-  <si>
-    <t>‘北向资金对市场的影响？’</t>
-  </si>
-  <si>
-    <t>‘北向资金流出</t>
+    <t>我们为什么那么关注北向资金</t>
+  </si>
+  <si>
+    <t>北向资金为什么被称为聪明资金</t>
+  </si>
+  <si>
+    <t>北向资金的流入意味着什么</t>
+  </si>
+  <si>
+    <t>北向资金对市场的影响？</t>
+  </si>
+  <si>
+    <t>北向资金流出</t>
   </si>
   <si>
     <t>对股市有什么影响</t>
@@ -241,19 +241,19 @@
     <t>两融余额的影响</t>
   </si>
   <si>
-    <t>两融余额的变化意味着什么’</t>
-  </si>
-  <si>
-    <t>‘怎么看两脸余额”</t>
-  </si>
-  <si>
-    <t>‘两融余额的变化对于股市的影响方向’</t>
-  </si>
-  <si>
-    <t>‘两融余颜是如何影响市场的</t>
-  </si>
-  <si>
-    <t>‘两融余额增加是好还是坏</t>
+    <t>两融余额的变化意味着什么</t>
+  </si>
+  <si>
+    <t>怎么看两脸余额</t>
+  </si>
+  <si>
+    <t>两融余额的变化对于股市的影响方向</t>
+  </si>
+  <si>
+    <t>两融余颜是如何影响市场的</t>
+  </si>
+  <si>
+    <t>两融余额增加是好还是坏</t>
   </si>
   <si>
     <t>每天净值几点更新</t>
@@ -262,19 +262,19 @@
     <t>我有一只基金为什么看不到净值一直没变化</t>
   </si>
   <si>
-    <t>‘为啥现在还不能看到昨天的变化</t>
-  </si>
-  <si>
-    <t>还有曲线也没有”</t>
-  </si>
-  <si>
-    <t>‘为什么手机银行基金净值更新的很慢</t>
-  </si>
-  <si>
-    <t>‘收盘了怎么还不更新净值</t>
-  </si>
-  <si>
-    <t>‘基金净值每天什么时候发布</t>
+    <t>为啥现在还不能看到昨天的变化</t>
+  </si>
+  <si>
+    <t>还有曲线也没有</t>
+  </si>
+  <si>
+    <t>为什么手机银行基金净值更新的很慢</t>
+  </si>
+  <si>
+    <t>收盘了怎么还不更新净值</t>
+  </si>
+  <si>
+    <t>基金净值每天什么时候发布</t>
   </si>
   <si>
     <t>什么是基金续存期</t>
@@ -283,13 +283,13 @@
     <t>什么样的是基金续存期</t>
   </si>
   <si>
-    <t>‘基金续存期是什么意思’</t>
-  </si>
-  <si>
-    <t>‘不太理解基金续存期的含义’</t>
-  </si>
-  <si>
-    <t>’什么叫基金续存期’</t>
+    <t>基金续存期是什么意思</t>
+  </si>
+  <si>
+    <t>不太理解基金续存期的含义</t>
+  </si>
+  <si>
+    <t>什么叫基金续存期</t>
   </si>
   <si>
     <t>进一进基金续存期</t>
@@ -298,43 +298,43 @@
     <t>如何查询理财产品的撤单规则</t>
   </si>
   <si>
-    <t>卖了理财以后多久时间内还可以后悔”</t>
-  </si>
-  <si>
-    <t>‘我的理财不想买了几点能撤啊”</t>
-  </si>
-  <si>
-    <t>‘最晚几点能撤回买的理财”</t>
-  </si>
-  <si>
-    <t>‘怎么看我买的理财还能不能撤回</t>
-  </si>
-  <si>
-    <t>‘封闭期的理财能撤单吗</t>
+    <t>卖了理财以后多久时间内还可以后悔</t>
+  </si>
+  <si>
+    <t>我的理财不想买了几点能撤啊</t>
+  </si>
+  <si>
+    <t>最晚几点能撤回买的理财</t>
+  </si>
+  <si>
+    <t>怎么看我买的理财还能不能撤回</t>
+  </si>
+  <si>
+    <t>封闭期的理财能撤单吗</t>
   </si>
   <si>
     <t>什么是累计净值</t>
   </si>
   <si>
-    <t>累计净值的概念是什么‘</t>
-  </si>
-  <si>
-    <t>‘累计净值有什么意义’</t>
-  </si>
-  <si>
-    <t>‘什么情况下基金的累计净值会更高’</t>
-  </si>
-  <si>
-    <t>‘累计净值的概念</t>
-  </si>
-  <si>
-    <t>‘累计净值是什么</t>
+    <t>累计净值的概念是什么</t>
+  </si>
+  <si>
+    <t>累计净值有什么意义</t>
+  </si>
+  <si>
+    <t>什么情况下基金的累计净值会更高</t>
+  </si>
+  <si>
+    <t>累计净值的概念</t>
+  </si>
+  <si>
+    <t>累计净值是什么</t>
   </si>
   <si>
     <t>什么是长债短债</t>
   </si>
   <si>
-    <t>啥样的是长债’</t>
+    <t>啥样的是长债</t>
   </si>
   <si>
     <t>没听说过短债</t>
@@ -343,10 +343,10 @@
     <t>你给我讲讲</t>
   </si>
   <si>
-    <t>‘短债是什么意思</t>
-  </si>
-  <si>
-    <t>‘长债有什么特点</t>
+    <t>短债是什么意思</t>
+  </si>
+  <si>
+    <t>长债有什么特点</t>
   </si>
   <si>
     <t>长债、短债有哪些区别</t>
@@ -358,16 +358,16 @@
     <t>下调外汇存款准备金率可以抑制人民币贬值吗</t>
   </si>
   <si>
-    <t>‘外汇存款准备金变动高好还是低好”</t>
-  </si>
-  <si>
-    <t>‘央行为什么要下调外汇存款准备金率</t>
-  </si>
-  <si>
-    <t>‘外汇存款准备金率的变动对人民币汇率有影响吗</t>
-  </si>
-  <si>
-    <t>‘央行下调外汇存款准备金率意味着什么</t>
+    <t>外汇存款准备金变动高好还是低好</t>
+  </si>
+  <si>
+    <t>央行为什么要下调外汇存款准备金率</t>
+  </si>
+  <si>
+    <t>外汇存款准备金率的变动对人民币汇率有影响吗</t>
+  </si>
+  <si>
+    <t>央行下调外汇存款准备金率意味着什么</t>
   </si>
   <si>
     <t>什么是基金托管人</t>
@@ -376,19 +376,19 @@
     <t>基金托管人是什么</t>
   </si>
   <si>
-    <t>‘我在你们银行买的基金</t>
+    <t>我在你们银行买的基金</t>
   </si>
   <si>
     <t>你们是托管人么</t>
   </si>
   <si>
-    <t>‘托管人的作用是什么</t>
-  </si>
-  <si>
-    <t>‘介绍一下基金托管人的概念</t>
-  </si>
-  <si>
-    <t>‘托管人是干啥的</t>
+    <t>托管人的作用是什么</t>
+  </si>
+  <si>
+    <t>介绍一下基金托管人的概念</t>
+  </si>
+  <si>
+    <t>托管人是干啥的</t>
   </si>
   <si>
     <t>计提减值对理财产品有什么影响？</t>
@@ -400,7 +400,7 @@
     <t>是计提减值的原因吗</t>
   </si>
   <si>
-    <t>‘最近理财收益波动很大</t>
+    <t>最近理财收益波动很大</t>
   </si>
   <si>
     <t>是计提减值造成的吗</t>
@@ -415,7 +415,7 @@
     <t>是什么原因</t>
   </si>
   <si>
-    <t>‘理财理财一般很安全的</t>
+    <t>理财理财一般很安全的</t>
   </si>
   <si>
     <t xml:space="preserve">为什么要进行计提减值
@@ -425,22 +425,22 @@
     <t>主题类基金该怎么投</t>
   </si>
   <si>
-    <t>买主题基金是不是挑最火的行业比较好”</t>
-  </si>
-  <si>
-    <t>‘我没买过主颗类基金</t>
-  </si>
-  <si>
-    <t>怎么选’</t>
-  </si>
-  <si>
-    <t>市场上什么样的主题基金比较好”</t>
-  </si>
-  <si>
-    <t>‘投资人工智能方向的基金怎么选’</t>
-  </si>
-  <si>
-    <t>‘选择主题类基金从哪里入手</t>
+    <t>买主题基金是不是挑最火的行业比较好</t>
+  </si>
+  <si>
+    <t>我没买过主颗类基金</t>
+  </si>
+  <si>
+    <t>怎么选</t>
+  </si>
+  <si>
+    <t>市场上什么样的主题基金比较好</t>
+  </si>
+  <si>
+    <t>投资人工智能方向的基金怎么选</t>
+  </si>
+  <si>
+    <t>选择主题类基金从哪里入手</t>
   </si>
   <si>
     <t>社服板块的投向</t>
@@ -449,10 +449,10 @@
     <t>"什么样的叫社服</t>
   </si>
   <si>
-    <t>‘什么是社会服务</t>
-  </si>
-  <si>
-    <t>‘啥样的是杜服</t>
+    <t>什么是社会服务</t>
+  </si>
+  <si>
+    <t>啥样的是杜服</t>
   </si>
   <si>
     <t>请你做一下社服概念的科普</t>
@@ -467,34 +467,34 @@
     <t>能给我普及一下基金收益的知识吗</t>
   </si>
   <si>
-    <t>‘基金的收益是怎样的</t>
-  </si>
-  <si>
-    <t>‘基金收益到底是什么意思</t>
-  </si>
-  <si>
-    <t>‘基金收益的本质是什么</t>
-  </si>
-  <si>
-    <t>‘简单介绍一下基金收益</t>
+    <t>基金的收益是怎样的</t>
+  </si>
+  <si>
+    <t>基金收益到底是什么意思</t>
+  </si>
+  <si>
+    <t>基金收益的本质是什么</t>
+  </si>
+  <si>
+    <t>简单介绍一下基金收益</t>
   </si>
   <si>
     <t>如何查询理财产品的累计收益？</t>
   </si>
   <si>
-    <t>理财累计收益在手机银行哪里’</t>
-  </si>
-  <si>
-    <t>‘理财总收益查询路径</t>
-  </si>
-  <si>
-    <t>‘包括赎回理财收益的总收益在哪看</t>
-  </si>
-  <si>
-    <t>‘给我查一下理财的总收益吧’</t>
-  </si>
-  <si>
-    <t>‘理财的累计收益怎么找</t>
+    <t>理财累计收益在手机银行哪里</t>
+  </si>
+  <si>
+    <t>理财总收益查询路径</t>
+  </si>
+  <si>
+    <t>包括赎回理财收益的总收益在哪看</t>
+  </si>
+  <si>
+    <t>给我查一下理财的总收益吧</t>
+  </si>
+  <si>
+    <t>理财的累计收益怎么找</t>
   </si>
   <si>
     <t>什么是LOF基金</t>
@@ -506,7 +506,7 @@
     <t>LOF的特征</t>
   </si>
   <si>
-    <t>‘LOF有怎样的特征什么叫LOF</t>
+    <t>LOF有怎样的特征什么叫LOF</t>
   </si>
   <si>
     <t>LOF有哪些特点</t>
@@ -521,10 +521,10 @@
     <t>怎么给</t>
   </si>
   <si>
-    <t>‘新基金申购期多久018708募集期利息年化</t>
-  </si>
-  <si>
-    <t>‘基金认购后一直到基金成立这段时间是否有利息</t>
+    <t>新基金申购期多久018708募集期利息年化</t>
+  </si>
+  <si>
+    <t>基金认购后一直到基金成立这段时间是否有利息</t>
   </si>
   <si>
     <t>为什么要有认购期</t>

--- a/qwen_agent/agents/resource/faq.xlsx
+++ b/qwen_agent/agents/resource/faq.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac/Citic/Code/Qwen-Agent/qwen_agent/agents/resource/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B209F0F-EC05-9D45-87A4-8EDA8DAD4634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="29420" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="206">
   <si>
     <t>query</t>
   </si>
@@ -25,6 +31,9 @@
     <t>什么是QDII基金</t>
   </si>
   <si>
+    <t>QDII是合格境内机构投资者的简称，是经有关部门批准从事海外资产投资的基金。QDI可以布局港股、美股、新兴国家市场等等，投资范围包括股票资产、海外债券资产、大宗商品和REITs等等。不同于A股的是，很多境外市场没有涨跌幅限制相应的风险也更大。由于存在时差、汇率、跨境管理和清算效率的问题，QDII基金的申购赎回时间通常更长一些。</t>
+  </si>
+  <si>
     <t>可以投资境外资产的基金是什么</t>
   </si>
   <si>
@@ -43,6 +52,9 @@
     <t>赎回是什么意思</t>
   </si>
   <si>
+    <t>基金赎回是指卖出基金，即投资者要求基金公司退出基金投资，并将从基金投资中退出的资金返还至投资者账户。</t>
+  </si>
+  <si>
     <t>简单介绍一下赎回</t>
   </si>
   <si>
@@ -61,6 +73,9 @@
     <t>如何查询理财产品？</t>
   </si>
   <si>
+    <t>查询路径：您可在“手机银行一财富一理财一产品一全部产品”，中查询在售所有理财产品，点击“筛选”可进行挑选查询。温馨提示：1、处于清算期的理财是查询不到的，即已到期未到账的理财；2、理财菜单下有理财交易明细查询可以查询你操作的购买、赎回、转入、转出等交易。</t>
+  </si>
+  <si>
     <t>怎么查询理财</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>什么是CPI</t>
   </si>
   <si>
+    <t>CPI即居民消赛价格指数，通俗的讲，就是市场上的货物价格增长百分比。CPI用来反映居民购买的生活消费品和服务价格水平的变动借况，是重要的宏观经济指标，常被用于观测通货膨胀水平。</t>
+  </si>
+  <si>
     <t>CPI是干什么的</t>
   </si>
   <si>
@@ -97,6 +115,9 @@
     <t>什么是平仓空仓</t>
   </si>
   <si>
+    <t>平仓是指把持有的证券资产全部卖出的行为。当你的证券资产仓库里，没有持有任何证券资产时，就是空仓。</t>
+  </si>
+  <si>
     <t>平仓是啥</t>
   </si>
   <si>
@@ -115,6 +136,9 @@
     <t>A类和C类有什么区别</t>
   </si>
   <si>
+    <t>A类代表着购买时需要支付认购费/申购费C类代表买入时不收费，但是持有期间会收取销售服务费。如果您是短期投资(1-2)年，那么选择C类比较合适；如果不太确定投资期限，那么就选择A类您可以根据自己的实际信况进行选择哦!</t>
+  </si>
+  <si>
     <t>A类与C类有什么区别</t>
   </si>
   <si>
@@ -139,6 +163,9 @@
     <t>货币基金有风险吗</t>
   </si>
   <si>
+    <t>货市基金是主要用于投资国债、银行存款等有价证券，属于极低风险的产品。就拿货币基金投资的标的之一国债来说，是国家以其信用为基础，安全性很高，一般不会有太大风险。虽然说货币基金投资标的风险极低，但是现实中也有发生过类似美国主要储备货币基金就受到2008年雷曼兄弟倒闭影响而跌破1美元面值，从而引发了投资者大量的恐慌性赎回的时候，所以货币基金并不存在无风险说法，只是风险相对较低而已.</t>
+  </si>
+  <si>
     <t>货基有没有过亏本的情况</t>
   </si>
   <si>
@@ -157,6 +184,9 @@
     <t>地缘冲突的影响</t>
   </si>
   <si>
+    <t>黑天鹅事件会影响市场短期风险偏好，但长期来看A股市场的走势主要取决于国内经济基本面以及企业盈利能力。目前A股整体估值优势依然明显，随着稳增长政策的不断推行，国内经济复苏指日可待，企业盈利预期改善，中长期可以保持乐观。理论上地缘冲突的爆发会激发市场的避险情绪，利好黄金，但是黄金同时也受通胀、美元等多重因素的影响，因此并不能仅仅因为地缘冲突就看多黄金。也有观点认为地缘冲突利好军工，同样，军工股的张跌也受估值水平、市场利率等多重因素影响，不能一概而论。</t>
+  </si>
+  <si>
     <t>俄乌战争对市场的影响</t>
   </si>
   <si>
@@ -181,6 +211,9 @@
     <t>什么是巨额赎回</t>
   </si>
   <si>
+    <t>在单个开放日，当某产品的净赎回申请超过上一日总份额的10%时，称为巨额赎回。（基金】客户在提交赎回申请时，都需要选择延期或不顺延两种处理方式。延期赎回发生巨额胶回时，将自动转入下一个开放日继续赎回，直到全部赎回为止；不顺延：当日未获赎回的部分申请将被撒销。【理财】当理财产品发生巨额赎回时，会提示报错：该产品本期已触发巨额赎回，您可在下一个开放周期赎回。</t>
+  </si>
+  <si>
     <t>基金发生了巨额赎回 代表着什么</t>
   </si>
   <si>
@@ -202,6 +235,9 @@
     <t>如何查询理财产品的历史业绩？</t>
   </si>
   <si>
+    <t>查询路径：您可在“手机银行一财富一理财一理财产品详情”中查看“历史业绩”</t>
+  </si>
+  <si>
     <t>广手机银行上理财之前的业绩怎么看</t>
   </si>
   <si>
@@ -220,6 +256,9 @@
     <t>北向资金的影响</t>
   </si>
   <si>
+    <t>北向资金可以理解为通过沪港通和深港通这些特殊的交易通道进入A股的资金。北向资金也被称为热钱、聪明钱，一般认为北向资金更有先知先觉的优势。北向资金净流入说明外资对A股投资兴趣提升，短期内A股大概率将向好，反之者短期内集中出逃，则说明外资对A股市场担忧情绪浓厚，那么往往预示着A股将走势疲软。</t>
+  </si>
+  <si>
     <t>我们为什么那么关注北向资金</t>
   </si>
   <si>
@@ -241,6 +280,9 @@
     <t>两融余额的影响</t>
   </si>
   <si>
+    <t>融资余额增加，说明市场有增量资金入场，有利于股市表现；融资余额减少，则说明资金面在流出，不利于股市表现。融券余额增加，说明资金有做空需求，不利于股市表现；融券余额减少，说明资金做空动力减弱，有利于股市表现。</t>
+  </si>
+  <si>
     <t>两融余额的变化意味着什么</t>
   </si>
   <si>
@@ -259,6 +301,9 @@
     <t>每天净值几点更新</t>
   </si>
   <si>
+    <t xml:space="preserve"> 一般情况下，基金净值每个交易日更新一次，基金净值公布时间一般为当天22：00左右。新发基金和封闭式基金至少每周公告一次基金净值，具体以基金公司公告为准。</t>
+  </si>
+  <si>
     <t>我有一只基金为什么看不到净值一直没变化</t>
   </si>
   <si>
@@ -280,6 +325,9 @@
     <t>什么是基金续存期</t>
   </si>
   <si>
+    <t>一般指封闭期结束后，基金进入日常交易期，这就是存续期。对于封闭式基金，它的存续期就是从基金开始封闭、直到最后到期的时间。对于开放式基金，存续期就是基金能正常交易的时间，不固定，可以长期持续运作。</t>
+  </si>
+  <si>
     <t>什么样的是基金续存期</t>
   </si>
   <si>
@@ -298,6 +346,9 @@
     <t>如何查询理财产品的撤单规则</t>
   </si>
   <si>
+    <t>查询路径：您可在“手机银行一财富一理财一理财产品详情一交易规则”中查看“撤单规则”</t>
+  </si>
+  <si>
     <t>卖了理财以后多久时间内还可以后悔</t>
   </si>
   <si>
@@ -316,6 +367,9 @@
     <t>什么是累计净值</t>
   </si>
   <si>
+    <t>累计净值二单位净值+基金成立后的单位累计分红例如，某基金成立以来累计分红每份0.4，单位净值1.5，则累计净值为1.9，这意味着基金从成立以来净值增长了90%。如果仅关注单位净值而忽略了曾经分配给投资者的红利，可能会大大低估了该只基金的赚钱能力哦!</t>
+  </si>
+  <si>
     <t>累计净值的概念是什么</t>
   </si>
   <si>
@@ -334,6 +388,9 @@
     <t>什么是长债短债</t>
   </si>
   <si>
+    <t>根据偿还时间不同，偿还期限10年以上的是长期债券，俗称”长债”，偿还期限1年以内的是短期债券，俗称”短债”，大于1年小于10年的是中期债券。中长债的发行机构多以政府为主，短债往往是企业或政府机构解决临时资金周转。</t>
+  </si>
+  <si>
     <t>啥样的是长债</t>
   </si>
   <si>
@@ -355,6 +412,9 @@
     <t>降低外汇存款准备金率的影响</t>
   </si>
   <si>
+    <t>降低外汇存款准备金率，将适度地增加外汇市场的流动性，加大金融机构手中外汇资金对市场上的供给，以改变外汇市场供求关系，从而减缓人民币贬值的压力，有利于稳定人民币汇率。同理，若提高外汇存款准备金率，会一定程度地缩减外汇市场流动性，减少外汇派生，有助于抑制人民币的单边升值预期。</t>
+  </si>
+  <si>
     <t>下调外汇存款准备金率可以抑制人民币贬值吗</t>
   </si>
   <si>
@@ -373,6 +433,9 @@
     <t>什么是基金托管人</t>
   </si>
   <si>
+    <t>基金托管人就是被托付来保管基金资产的。为了保证您的资金安全，基金资产必须由独立于基金管理人的第三方托管人保管。在我国基金托管人大多是实力雄厚的商业银行，但托管银行并不一定是您购买基金的银行哦!</t>
+  </si>
+  <si>
     <t>基金托管人是什么</t>
   </si>
   <si>
@@ -392,6 +455,9 @@
   </si>
   <si>
     <t>计提减值对理财产品有什么影响？</t>
+  </si>
+  <si>
+    <t>对理财产品净值的影响主要体现在成立初期和到期兑付的时候。在产品成立初期：由于计提了资产减值准备，会使得产品净值在短时间内发生回撤，净值低于1，但产品净值一般在后期会逐步恢复至1并在未来稳步上升。在产品到期兑付时：只要资产没有发生任何信用违约事件，先前计提的资产减值准备将会在产品到期前进行回冲，并不会造成真实的损失，也不会对产品最终兑付净值产生任何影响。</t>
   </si>
   <si>
     <t>对理财收益不满意</t>
@@ -425,6 +491,9 @@
     <t>主题类基金该怎么投</t>
   </si>
   <si>
+    <t>都说选择大于努力，我来教教你如何选择：首先，挑选高成长性的行业。这些行业发展增速往往远高于 GDP，而且具有稀缺性，如稀缺性的高端白酒和高端化的芯片。选择规模适中的基金。2亿元以下的主题基金规模太小，抗风险能力差，300亿以上的主题基金规模则太大，容易操作不灵活，可以考虑2亿到300亿之间的主题基金。最后，关注行业资讯，了解行业风向。投资是一场修行，要经常学习了解行业资讯哦。</t>
+  </si>
+  <si>
     <t>买主题基金是不是挑最火的行业比较好</t>
   </si>
   <si>
@@ -446,6 +515,9 @@
     <t>社服板块的投向</t>
   </si>
   <si>
+    <t>社会服务板块，简称社服，主要指酒店餐饮、旅游景区、机场免税，以及教育体育等消费性行业。</t>
+  </si>
+  <si>
     <t>"什么样的叫社服</t>
   </si>
   <si>
@@ -464,6 +536,9 @@
     <t>基金收益的来源</t>
   </si>
   <si>
+    <t>基金收益就是基金赚到的钱，主要来源有存款利息、股票分红、债券利息、买卖股票债券价差等。基金收益扣除基金运作管理费以后，会按照每个基民的持有份额——分配哦。当基金有了收益，我们就会看到持有的金额变多了。基金的收益波动可能与所投股票、债券的市场波动有关。您可以在手机银行”财言-基金-持仓页面查询收益情况</t>
+  </si>
+  <si>
     <t>能给我普及一下基金收益的知识吗</t>
   </si>
   <si>
@@ -482,6 +557,9 @@
     <t>如何查询理财产品的累计收益？</t>
   </si>
   <si>
+    <t>查询路径：您可在“手机银行一财富一理财一持仓一我的理财产品”中查看“累计收益”</t>
+  </si>
+  <si>
     <t>理财累计收益在手机银行哪里</t>
   </si>
   <si>
@@ -500,6 +578,9 @@
     <t>什么是LOF基金</t>
   </si>
   <si>
+    <t>LOF中文名为“上市型开放基金”，它既能在基金公司、银行、第三方代销平台交易（场外），也能通过证券交易所交易 （场内）。很多人常以为 LOF 基金也是指数基金，其实不然，它既可以是指数基金，也可以是主动型基金</t>
+  </si>
+  <si>
     <t>LOF的概念是什么</t>
   </si>
   <si>
@@ -515,6 +596,9 @@
     <t>什么是认购期</t>
   </si>
   <si>
+    <t>认购期是基金尚未成立时的募集时段，一般不超过一个月，在此期间一旦募集够特定规模便会结束募集。如果某只基金销售火爆，也有募集首日就售馨的情况，同时也会存在比例配售的可能。认购期内是有利息的，具体金额以注册登记中心的记录为准，在基金成立时，利息将自动折算为基金份额入基金账户认购期内可以进行多次购买，也可以在规定时间内撤单，已经被受理的认购申请是不可以微销的哦!</t>
+  </si>
+  <si>
     <t>基金募集期有利息吗</t>
   </si>
   <si>
@@ -530,102 +614,58 @@
     <t>为什么要有认购期</t>
   </si>
   <si>
-    <t>QDII是合格境内机构投资者的简称，是经有关部门批准从事海外资产投资的基金。QDI可以布局港股、美股、新兴国家市场等等，投资范围包括股票资产、海外债券资产、大宗商品和REITs等等。不同于A股的是，很多境外市场没有涨跌幅限制相应的风险也更大。由于存在时差、汇率、跨境管理和清算效率的问题，QDII基金的申购赎回时间通常更长一些。</t>
-  </si>
-  <si>
-    <t>基金赎回是指卖出基金，即投资者要求基金公司退出基金投资，并将从基金投资中退出的资金返还至投资者账户。</t>
-  </si>
-  <si>
-    <t>查询路径：您可在“手机银行一财富一理财一产品一全部产品”，中查询在售所有理财产品，点击“筛选”可进行挑选查询。温馨提示：1、处于清算期的理财是查询不到的，即已到期未到账的理财；2、理财菜单下有理财交易明细查询可以查询你操作的购买、赎回、转入、转出等交易。</t>
-  </si>
-  <si>
-    <t>CPI即居民消赛价格指数，通俗的讲，就是市场上的货物价格增长百分比。CPI用来反映居民购买的生活消费品和服务价格水平的变动借况，是重要的宏观经济指标，常被用于观测通货膨胀水平。</t>
-  </si>
-  <si>
-    <t>平仓是指把持有的证券资产全部卖出的行为。当你的证券资产仓库里，没有持有任何证券资产时，就是空仓。</t>
-  </si>
-  <si>
-    <t>A类代表着购买时需要支付认购费/申购费C类代表买入时不收费，但是持有期间会收取销售服务费。如果您是短期投资(1-2)年，那么选择C类比较合适；如果不太确定投资期限，那么就选择A类您可以根据自己的实际信况进行选择哦!</t>
-  </si>
-  <si>
-    <t>货市基金是主要用于投资国债、银行存款等有价证券，属于极低风险的产品。就拿货币基金投资的标的之一国债来说，是国家以其信用为基础，安全性很高，一般不会有太大风险。虽然说货币基金投资标的风险极低，但是现实中也有发生过类似美国主要储备货币基金就受到2008年雷曼兄弟倒闭影响而跌破1美元面值，从而引发了投资者大量的恐慌性赎回的时候，所以货币基金并不存在无风险说法，只是风险相对较低而已.</t>
-  </si>
-  <si>
-    <t>黑天鹅事件会影响市场短期风险偏好，但长期来看A股市场的走势主要取决于国内经济基本面以及企业盈利能力。目前A股整体估值优势依然明显，随着稳增长政策的不断推行，国内经济复苏指日可待，企业盈利预期改善，中长期可以保持乐观。理论上地缘冲突的爆发会激发市场的避险情绪，利好黄金，但是黄金同时也受通胀、美元等多重因素的影响，因此并不能仅仅因为地缘冲突就看多黄金。也有观点认为地缘冲突利好军工，同样，军工股的张跌也受估值水平、市场利率等多重因素影响，不能一概而论。</t>
-  </si>
-  <si>
-    <t>在单个开放日，当某产品的净赎回申请超过上一日总份额的10%时，称为巨额赎回。（基金】客户在提交赎回申请时，都需要选择延期或不顺延两种处理方式。延期赎回发生巨额胶回时，将自动转入下一个开放日继续赎回，直到全部赎回为止；不顺延：当日未获赎回的部分申请将被撒销。【理财】当理财产品发生巨额赎回时，会提示报错：该产品本期已触发巨额赎回，您可在下一个开放周期赎回。</t>
-  </si>
-  <si>
-    <t>查询路径：您可在“手机银行一财富一理财一理财产品详情”中查看“历史业绩”</t>
-  </si>
-  <si>
-    <t>北向资金可以理解为通过沪港通和深港通这些特殊的交易通道进入A股的资金。北向资金也被称为热钱、聪明钱，一般认为北向资金更有先知先觉的优势。北向资金净流入说明外资对A股投资兴趣提升，短期内A股大概率将向好，反之者短期内集中出逃，则说明外资对A股市场担忧情绪浓厚，那么往往预示着A股将走势疲软。</t>
-  </si>
-  <si>
-    <t>融资余额增加，说明市场有增量资金入场，有利于股市表现；融资余额减少，则说明资金面在流出，不利于股市表现。融券余额增加，说明资金有做空需求，不利于股市表现；融券余额减少，说明资金做空动力减弱，有利于股市表现。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一般情况下，基金净值每个交易日更新一次，基金净值公布时间一般为当天22：00左右。新发基金和封闭式基金至少每周公告一次基金净值，具体以基金公司公告为准。</t>
-  </si>
-  <si>
-    <t>一般指封闭期结束后，基金进入日常交易期，这就是存续期。对于封闭式基金，它的存续期就是从基金开始封闭、直到最后到期的时间。对于开放式基金，存续期就是基金能正常交易的时间，不固定，可以长期持续运作。</t>
-  </si>
-  <si>
-    <t>查询路径：您可在“手机银行一财富一理财一理财产品详情一交易规则”中查看“撤单规则”</t>
-  </si>
-  <si>
-    <t>累计净值二单位净值+基金成立后的单位累计分红例如，某基金成立以来累计分红每份0.4，单位净值1.5，则累计净值为1.9，这意味着基金从成立以来净值增长了90%。如果仅关注单位净值而忽略了曾经分配给投资者的红利，可能会大大低估了该只基金的赚钱能力哦!</t>
-  </si>
-  <si>
-    <t>根据偿还时间不同，偿还期限10年以上的是长期债券，俗称”长债”，偿还期限1年以内的是短期债券，俗称”短债”，大于1年小于10年的是中期债券。中长债的发行机构多以政府为主，短债往往是企业或政府机构解决临时资金周转。</t>
-  </si>
-  <si>
-    <t>降低外汇存款准备金率，将适度地增加外汇市场的流动性，加大金融机构手中外汇资金对市场上的供给，以改变外汇市场供求关系，从而减缓人民币贬值的压力，有利于稳定人民币汇率。同理，若提高外汇存款准备金率，会一定程度地缩减外汇市场流动性，减少外汇派生，有助于抑制人民币的单边升值预期。</t>
-  </si>
-  <si>
-    <t>基金托管人就是被托付来保管基金资产的。为了保证您的资金安全，基金资产必须由独立于基金管理人的第三方托管人保管。在我国基金托管人大多是实力雄厚的商业银行，但托管银行并不一定是您购买基金的银行哦!</t>
-  </si>
-  <si>
-    <t>对理财产品净值的影响主要体现在成立初期和到期兑付的时候。在产品成立初期：由于计提了资产减值准备，会使得产品净值在短时间内发生回撤，净值低于1，但产品净值一般在后期会逐步恢复至1并在未来稳步上升。在产品到期兑付时：只要资产没有发生任何信用违约事件，先前计提的资产减值准备将会在产品到期前进行回冲，并不会造成真实的损失，也不会对产品最终兑付净值产生任何影响。</t>
-  </si>
-  <si>
-    <t>都说选择大于努力，我来教教你如何选择：首先，挑选高成长性的行业。这些行业发展增速往往远高于 GDP，而且具有稀缺性，如稀缺性的高端白酒和高端化的芯片。选择规模适中的基金。2亿元以下的主题基金规模太小，抗风险能力差，300亿以上的主题基金规模则太大，容易操作不灵活，可以考虑2亿到300亿之间的主题基金。最后，关注行业资讯，了解行业风向。投资是一场修行，要经常学习了解行业资讯哦。</t>
-  </si>
-  <si>
-    <t>社会服务板块，简称社服，主要指酒店餐饮、旅游景区、机场免税，以及教育体育等消费性行业。</t>
-  </si>
-  <si>
-    <t>基金收益就是基金赚到的钱，主要来源有存款利息、股票分红、债券利息、买卖股票债券价差等。基金收益扣除基金运作管理费以后，会按照每个基民的持有份额——分配哦。当基金有了收益，我们就会看到持有的金额变多了。基金的收益波动可能与所投股票、债券的市场波动有关。您可以在手机银行”财言-基金-持仓页面查询收益情况</t>
-  </si>
-  <si>
-    <t>查询路径：您可在“手机银行一财富一理财一持仓一我的理财产品”中查看“累计收益”</t>
-  </si>
-  <si>
-    <t>LOF中文名为“上市型开放基金”，它既能在基金公司、银行、第三方代销平台交易（场外），也能通过证券交易所交易 （场内）。很多人常以为 LOF 基金也是指数基金，其实不然，它既可以是指数基金，也可以是主动型基金</t>
-  </si>
-  <si>
-    <t>认购期是基金尚未成立时的募集时段，一般不超过一个月，在此期间一旦募集够特定规模便会结束募集。如果某只基金销售火爆，也有募集首日就售馨的情况，同时也会存在比例配售的可能。认购期内是有利息的，具体金额以注册登记中心的记录为准，在基金成立时，利息将自动折算为基金份额入基金账户认购期内可以进行多次购买，也可以在规定时间内撤单，已经被受理的认购申请是不可以微销的哦!</t>
+    <t>对于投资问题，我建议你谨慎考虑。市场波动无法预测，买入时的价格并不一定代表未来的表现。建议你根据自己的投资目标和风险承受能力做出决策，可以考虑分批买入或定投策略来分散风险。记住，投资有风险，需谨慎对待。希望这些建议对你有帮助！如果有任何其他问题，请随时告诉我。</t>
+  </si>
+  <si>
+    <t>我在基金涨幅较高时购买</t>
+  </si>
+  <si>
+    <t>是否存在风险后续会下跌？</t>
+  </si>
+  <si>
+    <t>如果我现在购买某只股票</t>
+  </si>
+  <si>
+    <t>会不会错过最佳买入时机？</t>
+  </si>
+  <si>
+    <t>对于某只热门投资产品</t>
+  </si>
+  <si>
+    <t>应该在涨势中买入还是等待回调时再入市？</t>
+  </si>
+  <si>
+    <t>如何避免在市场高点购买资产而导致亏损？</t>
+  </si>
+  <si>
+    <t>这款基金收益确实不错，你说我现在买会不会追高了后面跌了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -671,10 +711,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -962,12 +1010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -982,1354 +1032,1419 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B149" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B155" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B156" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B158" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B159" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B160" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B164" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B166" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>205</v>
+      </c>
+      <c r="B171" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>199</v>
+      </c>
+      <c r="B173" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>201</v>
+      </c>
+      <c r="B175" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>204</v>
+      </c>
+      <c r="B178" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>